--- a/assets/docs/Dimitri-Tableau de synthese.xlsx
+++ b/assets/docs/Dimitri-Tableau de synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimit\Desktop\BTS SIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1E3DCF-75C2-41CD-97B1-A312CB55B324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CD240A-F3D0-4FD3-A93F-69F5F737773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,18 +275,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="22"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="16"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
-      <name val="Aptos"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -757,24 +759,57 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -799,53 +834,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1158,7 +1160,7 @@
   <dimension ref="A1:AQ68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1172,56 +1174,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="47"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1233,22 +1235,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:43" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1270,9 +1272,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="216" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="221.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1328,16 +1330,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="21"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1375,10 +1377,10 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="203" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="51" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="22"/>
@@ -1432,10 +1434,10 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="216.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="14"/>
@@ -1489,7 +1491,7 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="199" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="8"/>
@@ -1540,16 +1542,16 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1587,10 +1589,10 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="228.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="52" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="22"/>
@@ -1642,16 +1644,16 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -2096,6 +2098,11 @@
     <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2103,11 +2110,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2118,6 +2120,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010021F7977E49F44542ABC169D3385720BE" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cf713f46d33035be00877ff8f959ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e941104-c427-4bbd-984f-032c9c413468" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c16e54e4b70d5728734523a24a24c88" ns2:_="">
     <xsd:import namespace="3e941104-c427-4bbd-984f-032c9c413468"/>
@@ -2255,22 +2272,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E2624D4-D0F5-4CDD-8F7C-B158102636B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3e941104-c427-4bbd-984f-032c9c413468"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76564368-5BF8-48E2-AA91-E85E538DFFE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD92159-81FB-4C72-AE74-77C4F4A0B31E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2286,28 +2312,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76564368-5BF8-48E2-AA91-E85E538DFFE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E2624D4-D0F5-4CDD-8F7C-B158102636B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3e941104-c427-4bbd-984f-032c9c413468"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/docs/Dimitri-Tableau de synthese.xlsx
+++ b/assets/docs/Dimitri-Tableau de synthese.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimit\Desktop\BTS SIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\portfolio\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CD240A-F3D0-4FD3-A93F-69F5F737773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E944FCCB-1900-4802-8A80-80A361096AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,15 +759,54 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -809,45 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1159,7 +1159,7 @@
   </sheetPr>
   <dimension ref="A1:AQ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="38" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1174,56 +1174,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="46" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="47"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1235,22 +1235,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:43" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1273,8 +1273,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="221.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1330,16 +1330,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="21"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1377,10 +1377,10 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="203" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="22"/>
@@ -1434,10 +1434,10 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="216.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="14"/>
@@ -1490,8 +1490,8 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="199" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="8"/>
@@ -1542,16 +1542,16 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1589,10 +1589,10 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="228.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="22"/>
@@ -1644,16 +1644,16 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -2098,11 +2098,6 @@
     <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2110,6 +2105,11 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2120,21 +2120,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010021F7977E49F44542ABC169D3385720BE" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cf713f46d33035be00877ff8f959ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e941104-c427-4bbd-984f-032c9c413468" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c16e54e4b70d5728734523a24a24c88" ns2:_="">
     <xsd:import namespace="3e941104-c427-4bbd-984f-032c9c413468"/>
@@ -2272,31 +2257,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E2624D4-D0F5-4CDD-8F7C-B158102636B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3e941104-c427-4bbd-984f-032c9c413468"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76564368-5BF8-48E2-AA91-E85E538DFFE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD92159-81FB-4C72-AE74-77C4F4A0B31E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2312,4 +2288,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76564368-5BF8-48E2-AA91-E85E538DFFE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E2624D4-D0F5-4CDD-8F7C-B158102636B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3e941104-c427-4bbd-984f-032c9c413468"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/docs/Dimitri-Tableau de synthese.xlsx
+++ b/assets/docs/Dimitri-Tableau de synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\portfolio\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E944FCCB-1900-4802-8A80-80A361096AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B9814F-7464-4513-9F54-67DED9FCCCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,9 +774,57 @@
     <xf numFmtId="16" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -799,54 +847,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:AQ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="38" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="38" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1174,56 +1174,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1235,22 +1235,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1273,8 +1273,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="221.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1330,16 +1330,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="21"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1433,7 +1433,7 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="216.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="223" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="281" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>31</v>
       </c>
@@ -1541,17 +1541,17 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1644,16 +1644,16 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -2098,6 +2098,11 @@
     <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2105,11 +2110,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2120,6 +2120,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010021F7977E49F44542ABC169D3385720BE" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cf713f46d33035be00877ff8f959ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e941104-c427-4bbd-984f-032c9c413468" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c16e54e4b70d5728734523a24a24c88" ns2:_="">
     <xsd:import namespace="3e941104-c427-4bbd-984f-032c9c413468"/>
@@ -2257,22 +2272,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E2624D4-D0F5-4CDD-8F7C-B158102636B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3e941104-c427-4bbd-984f-032c9c413468"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76564368-5BF8-48E2-AA91-E85E538DFFE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD92159-81FB-4C72-AE74-77C4F4A0B31E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2288,28 +2312,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76564368-5BF8-48E2-AA91-E85E538DFFE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E2624D4-D0F5-4CDD-8F7C-B158102636B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3e941104-c427-4bbd-984f-032c9c413468"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>